--- a/medicine/Mort/Panthéon_Komitas/Panthéon_Komitas.xlsx
+++ b/medicine/Mort/Panthéon_Komitas/Panthéon_Komitas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_Komitas</t>
+          <t>Panthéon_Komitas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Panthéon Komitas (en arménien : Կոմիտասի անվան զբոսայգի եւ պանթեոն) est un lieu constitué d'un cimetière et d'un parc[1], situé dans le district de Chengavit à Erevan. Il est nommé d'après le musicien Komitas qui y est inhumé. Le Panthéon existe depuis 1936 à la suite de la démolition du cimetière Mler et de sa chapelle historique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Panthéon Komitas (en arménien : Կոմիտասի անվան զբոսայգի եւ պանթեոն) est un lieu constitué d'un cimetière et d'un parc, situé dans le district de Chengavit à Erevan. Il est nommé d'après le musicien Komitas qui y est inhumé. Le Panthéon existe depuis 1936 à la suite de la démolition du cimetière Mler et de sa chapelle historique.
 Plusieurs personnalités du monde artistique arménien y sont enterrées.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_Komitas</t>
+          <t>Panthéon_Komitas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On dénombre soixante tombes au Panthéon Komitas[2]. En particulier celles-ci :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dénombre soixante tombes au Panthéon Komitas. En particulier celles-ci :
 			Tombe de Sergueï Paradjanov
 			Tombe de William Saroyan
 			Tombe de Komitas
